--- a/坐标测试文件/test-xy-200.xlsx
+++ b/坐标测试文件/test-xy-200.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\坐标测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38415479-8B19-40E2-A8B3-0ECD89087D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67769E36-C51D-40B3-88BB-2CA8F1DED8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="1668" windowWidth="19236" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -452,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -464,7 +465,7 @@
     <col min="10" max="10" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,23 +490,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -521,17 +507,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -548,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -565,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -582,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -599,7 +576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -616,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -633,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -650,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -667,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -684,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -701,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -718,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -735,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -752,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3919,7 +3896,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:M1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BE9266-4162-41A0-94C7-254EBB77BE04}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>